--- a/data/국민의당_경선.xlsx
+++ b/data/국민의당_경선.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chongmu\Dropbox\02_data_family\_votes\78_open_primary\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="21555" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="17-03-19" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
   <si>
     <t>시군</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,14 +340,98 @@
   </si>
   <si>
     <t>완도군 농어민문화체육센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대중컨벤션센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보통신부 서귀포수련원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡스코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장충체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한밭체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군산시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경포초등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진안군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진안문화의집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고창군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고창농협하나로마트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,7 +456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -389,17 +479,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,6 +512,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +598,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,6 +650,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,21 +843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -726,611 +874,1305 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D5" si="0">CONCATENATE(B2, " ", C2)</f>
+        <v>대구광역시 실내체육관</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>서울특별시 장충체육관</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>대전광역시 한밭체육관</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>부산광역시 벡스코</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D7" si="1">CONCATENATE(B6, " ", C6)</f>
+        <v>제주시 제주체육관</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>서귀포시 정보통신부 서귀포수련원</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(B8, " ", C8)</f>
+        <v>광주광역시 김대중컨벤션센터</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(B2, " ", C2)</f>
+      <c r="D9" t="str">
+        <f>CONCATENATE(B9, " ", C9)</f>
         <v>목포시 유달경기장</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D39" si="0">CONCATENATE(B3, " ", C3)</f>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D44" si="2">CONCATENATE(B10, " ", C10)</f>
         <v>여수시 전남문예회관</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
         <v>순천시 순천대학교 실내체육관</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
         <v>나주시 나주시민회관</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
         <v>광양시 수협예식장</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
         <v>담양군 담양 문화회관</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
         <v>장성군 장성읍 주민자치센터</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
         <v>곡성군 공성군민회관</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
         <v>구례군 구례읍사무소</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
         <v>고흥군 고흥군민회관</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
         <v>보성군 보성실내체육관</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
         <v>화순군 화순군민회관</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
         <v>장흥군 장흥실내체육관</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
         <v>강진군 강징읍사무소</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
         <v>완도군 완도읍 개포로 111</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
         <v>해남군 해남농협 하나로마트</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
         <v>진도군 진도 향토문화회관</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
         <v>영암군 영암군민회관</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
         <v>무안군 승달문화예슬회관</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
         <v>영광군 영광읍 천련로 1464</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
         <v>함평군 함평읍 한우프라자</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
         <v>신안군 압해읍 학교리 588-7</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>전주시 남초등학교</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>전주시 근영여고</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>전주시 전북도청</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>전주시 양지 노인복지관</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>전주시 팔복동 주민센터</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>전주시 전주 실내체육관</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>완주군 완주고등학교</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>익산시 부송로 125</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>익산시 원광대학교 구체육관</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>남원시 용성 초등학교</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>김제시 김제중앙초등학교</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>임실군 임실 읍사무소</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>순창군 순창군민 체육센터</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>부안군 부안 초등학교</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>무주군 무주예체문화관</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>장수군 한국농어촌공사 무진장지사</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>군산시 경포초등학교</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>진안군 진안문화의집</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>고창군 고창농협하나로마트</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(B2, " ", C2)</f>
+        <v>목포시 유달경기장</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D39" si="0">CONCATENATE(B3, " ", C3)</f>
+        <v>여수시 전남문예회관</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>순천시 순천대학교 실내체육관</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>나주시 나주시민회관</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>광양시 수협예식장</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>담양군 담양 문화회관</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>장성군 장성읍 주민자치센터</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>곡성군 공성군민회관</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>구례군 구례읍사무소</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>고흥군 고흥군민회관</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>보성군 보성실내체육관</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>화순군 화순군민회관</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>장흥군 장흥실내체육관</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>강진군 강징읍사무소</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>완도군 완도읍 개포로 111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>해남군 해남농협 하나로마트</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>진도군 진도 향토문화회관</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>영암군 영암군민회관</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>무안군 승달문화예슬회관</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>영광군 영광읍 천련로 1464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>함평군 함평읍 한우프라자</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>신안군 압해읍 학교리 588-7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 남초등학교</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 근영여고</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 전북도청</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 양지 노인복지관</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 팔복동 주민센터</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>전주시 전주 실내체육관</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>완주군 완주고등학교</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>익산시 부송로 125</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>익산시 원광대학교 구체육관</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>남원시 용성 초등학교</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>김제시 김제중앙초등학교</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>임실군 임실 읍사무소</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>순창군 순창군민 체육센터</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>부안군 부안 초등학교</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>무주군 무주예체문화관</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>장수군 한국농어촌공사 무진장지사</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
